--- a/grid_VS_extension_VS_biased.xlsx
+++ b/grid_VS_extension_VS_biased.xlsx
@@ -1,127 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioann\Documents\uni\Internship\Fakas\extension\extention_exp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E52D18-0427-4F07-841E-F755430EC1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>K/(k*g)</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>lenCL</t>
-  </si>
-  <si>
-    <t>grid_iadu_hpfr</t>
-  </si>
-  <si>
-    <t>grid_iadu_pss_sum</t>
-  </si>
-  <si>
-    <t>grid_iadu_psr_sum</t>
-  </si>
-  <si>
-    <t>grid_prop_hpfr</t>
-  </si>
-  <si>
-    <t>grid_prop_pss_sum</t>
-  </si>
-  <si>
-    <t>grid_prop_psr_sum</t>
-  </si>
-  <si>
-    <t>biased_hpfr</t>
-  </si>
-  <si>
-    <t>biased_pss_sum</t>
-  </si>
-  <si>
-    <t>biased_psr_sum</t>
-  </si>
-  <si>
-    <t>K/(k * 1)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA6A6A6"/>
-        <bgColor rgb="FFA6A6A6"/>
+        <fgColor rgb="00A6A6A6"/>
+        <bgColor rgb="00A6A6A6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFD9E1F2"/>
+        <fgColor rgb="00D9E1F2"/>
+        <bgColor rgb="00D9E1F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FFE2EFDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFE2EFDA"/>
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -145,41 +87,105 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
       <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
+      <right style="thick"/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -467,121 +473,1140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="15" width="16" customWidth="1"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="14" max="14"/>
+    <col width="16" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>K/(k*g)</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>lenCL</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>grid_iadu_hpfr</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>grid_iadu_pss_sum</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>grid_iadu_psr_sum</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>grid_sampling_hpfr</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>grid_sampling_pss_sum</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>grid_sampling_psr_sum</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>biased_hpfr</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>biased_pss_sum</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>biased_psr_sum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="F2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>6239.467</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>5894.386</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>5666.198</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>4891.256</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>5916.011</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>5248.197</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="C3" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>6230.884</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>5713.527</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>5827.706</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <v>4858.292</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>6313.527</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>6073.601</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>6226.536</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>5699.194</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>6075.851</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>5425.798</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>6110.232</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>5666.436</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>12420.549</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>12564.193</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>11963.086</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>11375.726</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>12265.599</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>11907.849</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>12336.232</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>12044.171</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>11874.348</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>11014.673</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>11770.941</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>11153.807</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>12262.514</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>11828.09</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>11840.845</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>11007.537</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>11794.188</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>10922.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>30400.973</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>30865.771</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>30075.572</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>29797.912</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>29001.57</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>27899.064</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30249.484</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>30129.893</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>29807.06</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>29172.746</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>30199.637</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>30200.564</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>30282.761</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>30171.948</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>29400.479</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>28323.875</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>29802.486</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>29609.646</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>58583.524</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>57637.91</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>59393.216</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>58772.258</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>58655.145</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>57579.656</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>60214.811</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>60548.998</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>59146.303</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>58285.312</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>58410.914</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>57726.659</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>60229.955</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>60572.693</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>58868.125</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>57744.745</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>59005.477</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>58534.429</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B14" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>250</v>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>62531.041</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>67169.167</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>55684.81</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>49830.632</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>57707.414</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>54219.052</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>250</v>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>60833.997</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>61666.148</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>56627.592</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>51626.313</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>56833.032</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>53283.957</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>250</v>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>59784.608</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>58659.066</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>56514.352</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>51446.584</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>55890.275</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>51192.761</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>154015.13</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>167681.934</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>143802.82</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>140729.044</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>144260.773</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>142276.331</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B18" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C18" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>148676.642</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>152353.451</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>143405.508</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>139617.838</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>143017.763</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>140487.662</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F19" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="G2" s="5">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="H2" s="4">
-        <v>340596.82400000002</v>
-      </c>
-      <c r="I2" s="4">
-        <v>347488.272</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0.314</v>
-      </c>
-      <c r="K2" s="4">
-        <v>330032.41700000002</v>
-      </c>
-      <c r="L2" s="4">
-        <v>324347.75</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="N2" s="4">
-        <v>334825.05200000003</v>
-      </c>
-      <c r="O2" s="4">
-        <v>335360.739</v>
+      <c r="G19" s="5" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>146933.881</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>147527.341</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>142486.005</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>137882.687</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>142836.648</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>140561.736</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>303537.262</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>327831.067</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>284301.534</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>278994.396</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>284025.194</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>280352.84</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>295259.074</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>303835.586</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>287089.42</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>284542.641</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>289766.651</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>290945.146</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 1)</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>293761.631</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>299301.443</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>284103.925</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>278684.271</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>288425.682</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>288241.939</v>
       </c>
     </row>
   </sheetData>
